--- a/dailymenu.xlsx
+++ b/dailymenu.xlsx
@@ -10,12 +10,15 @@
     <sheet name="菜单" sheetId="1" r:id="rId1"/>
     <sheet name="类型" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">菜单!$A$1:$B$12</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="124">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,17 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-清炒蔬菜</t>
-  </si>
-  <si>
-    <t>1-清炒蔬菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-口味蔬菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6-汤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,21 +60,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白菜苔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红菜苔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>干煸四季豆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-口味蔬菜</t>
-  </si>
-  <si>
     <t>手撕包菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +102,409 @@
   </si>
   <si>
     <t>凉拌豆笋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豉辣椒土豆丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆红烧肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-大荤</t>
+  </si>
+  <si>
+    <t>土豆泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-点心小吃</t>
+  </si>
+  <si>
+    <t>8-点心小吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孜然土豆片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆片炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-小荤</t>
+  </si>
+  <si>
+    <t>紫苏蒸土豆片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸薯条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆炖排骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地土豆片汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒白萝卜丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白萝卜炖排骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜干炒腊肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒萝卜炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白萝卜炖牛腩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青椒炒蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青椒煎蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油淋青椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油淋红椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擂辣椒茄子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱辣椒炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱辣椒炒鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱辣椒蒸鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白辣椒炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白辣椒炒腊肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸白辣椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸辣椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜煎蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉拌韭菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜炒蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜饺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜香干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜炒腊肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜炒熏肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜炒烤肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜柴火干炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-清炒素菜</t>
+  </si>
+  <si>
+    <t>1-清炒素菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-口味素菜</t>
+  </si>
+  <si>
+    <t>2-口味素菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸茄子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄子烧肉泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青椒炒茄子皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼香肉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剁辣椒炒白菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒白菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒西兰花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒菜心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬菇菜心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芥兰炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒藕片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口味藕丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藕夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒藕尖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒子骨炖湖藕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茭瓜炒肉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茭瓜炒牛肉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋葱炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋葱炒牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋葵炒蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笋丝炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸红薯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药排骨汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口味山药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸山药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级玛丽汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菇炖鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醋拌木耳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银耳莲子羹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清蒸金针菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剁辣椒蒸金针菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉拌海带丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海带炖排骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫菜蛋汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏鲍菇炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶树菇炒五花肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干锅茶树菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜炒青皮豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅干菜蒸肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜烧牛腩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜炒大蒜叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉拌黄瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苏煎黄瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜炒火腿肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨菜肉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸豆角肉泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻婆豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧日本豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小葱拌豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼头豆腐汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼头汤闷豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒白菜苔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒红菜苔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒莴笋片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉拌莴笋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,11 +852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -491,97 +875,838 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B12">
+    <sortState ref="A2:B104">
+      <sortCondition ref="B1:B12"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
-      <formula1>类型!$A$2:$A$9</formula1>
+      <formula1>类型!$A$2:$A$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -603,11 +1728,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -617,10 +1742,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -633,7 +1758,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -641,7 +1766,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -649,7 +1774,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -657,7 +1782,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -665,7 +1790,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -673,7 +1798,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -681,9 +1806,17 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
